--- a/reporte_ventas.xlsx
+++ b/reporte_ventas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,7 +468,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2025-10-31 17:44:12</t>
+          <t>2025-11-01 12:02:56</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -478,75 +478,75 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>FLORERO TILLI</t>
+          <t>FLORERO CHOPA</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F2" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2025-10-31 17:55:14</t>
+          <t>2025-11-01 12:16:30</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cliente General</t>
+          <t>Mateo Patatian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>FLORERO TILLI</t>
+          <t>Mesa Duna</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E3" t="n">
-        <v>11000</v>
+        <v>191500</v>
       </c>
       <c r="F3" t="n">
-        <v>11000</v>
+        <v>574500</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2025-10-31 17:55:30</t>
+          <t>2025-11-01 12:16:30</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cliente General</t>
+          <t>Mateo Patatian</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>FLORERO DALLI</t>
+          <t>FLORERO KAHALI</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
-        <v>12000</v>
+        <v>15000</v>
       </c>
       <c r="F4" t="n">
-        <v>24000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2025-10-31 18:18:30</t>
+          <t>2025-11-04 14:29:18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -556,23 +556,23 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>FLORERO TILLI</t>
+          <t>FLORERO DALLI</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
-        <v>11000</v>
+        <v>12000</v>
       </c>
       <c r="F5" t="n">
-        <v>33000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-31 18:18:30</t>
+          <t>2025-11-04 14:29:18</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -592,32 +592,6 @@
         <v>12000</v>
       </c>
       <c r="F6" t="n">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-10-31 18:18:30</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Mateo Patatian</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>FLORERO DALLI</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-      <c r="E7" t="n">
-        <v>12000</v>
-      </c>
-      <c r="F7" t="n">
         <v>12000</v>
       </c>
     </row>

--- a/reporte_ventas.xlsx
+++ b/reporte_ventas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -595,6 +595,110 @@
         <v>12000</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2025-11-05 21:03:18</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cliente General</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>FLORERO DALLI</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:41:56</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cliente General</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>FLORERO DALLI</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:41:56</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Cliente General</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>FLORERO CHOPA</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>12000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:41:56</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Cliente General</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>FLORERO LATORI</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>17000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>17000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/reporte_ventas.xlsx
+++ b/reporte_ventas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cliente General</t>
+          <t>Consumidor Final</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Cliente General</t>
+          <t>Consumidor Final</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -629,7 +629,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Cliente General</t>
+          <t>Consumidor Final</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Cliente General</t>
+          <t>Consumidor Final</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cliente General</t>
+          <t>Consumidor Final</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -697,6 +697,32 @@
       </c>
       <c r="F10" t="n">
         <v>17000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2025-11-05 22:44:52</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Mateo Patatian</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>FANAL ORIENTAL</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>23</v>
+      </c>
+      <c r="E11" t="n">
+        <v>80500</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1851500</v>
       </c>
     </row>
   </sheetData>
